--- a/worksheet/Homework part2.xlsx
+++ b/worksheet/Homework part2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/whitegg/Documents/GitHub/Excel/worksheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AC55A70-8F0F-2740-816A-765FB70F37C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C7E0E-6041-C44A-9113-096591E75D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{4B2525E5-8B3F-0648-926C-2B2E050C55D4}"/>
+    <workbookView xWindow="1560" yWindow="1280" windowWidth="27240" windowHeight="16440" activeTab="6" xr2:uid="{4B2525E5-8B3F-0648-926C-2B2E050C55D4}"/>
   </bookViews>
   <sheets>
     <sheet name="HW8" sheetId="1" r:id="rId1"/>
@@ -6859,7 +6859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C4D947-3AA7-454A-A4CF-3469DB15265F}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
